--- a/Assignment 1/Problem 1/demand2020_forecast.xlsx
+++ b/Assignment 1/Problem 1/demand2020_forecast.xlsx
@@ -435,70 +435,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>EGLL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LFPG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EHAM</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EDDF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LEMD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LEBL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EDDM</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LIRF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EIDW</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ESSA</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LPPT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EDDT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>EFHK</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EPWA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EGPH</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LROP</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LGIR</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BIKF</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LICJ</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LPMA</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EGLL</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -562,8 +604,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>LFPG</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1402.296046910472</v>
@@ -627,8 +671,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EHAM</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>903.3105174988242</v>
@@ -692,8 +738,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EDDF</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>403.057498103921</v>
@@ -757,8 +805,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>LEMD</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>273.3755736372722</v>
@@ -822,8 +872,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LEBL</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>204.7437770486284</v>
@@ -887,8 +939,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EDDM</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>383.1364194459669</v>
@@ -952,8 +1006,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LIRF</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>237.7205823810009</v>
@@ -1017,8 +1073,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EIDW</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>863.8536087503611</v>
@@ -1082,8 +1140,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ESSA</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>189.9065122870909</v>
@@ -1147,8 +1207,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>LPPT</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>60.6291215196551</v>
@@ -1212,8 +1274,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>EDDT</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>636.3766710591717</v>
@@ -1277,8 +1341,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>EFHK</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>101.2517083559174</v>
@@ -1342,8 +1408,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>EPWA</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>103.3991305324099</v>
@@ -1407,8 +1475,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>EGPH</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>365.3717011096231</v>
@@ -1472,8 +1542,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>LROP</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>59.43303904024551</v>
@@ -1537,8 +1609,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>LGIR</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>12.08691410923005</v>
@@ -1602,8 +1676,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>BIKF</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>61.50082926892657</v>
@@ -1667,8 +1743,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>LICJ</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>75.7854795463186</v>
@@ -1732,8 +1810,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>LPMA</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>22.0347329994961</v>

--- a/Assignment 1/Problem 1/demand2020_forecast.xlsx
+++ b/Assignment 1/Problem 1/demand2020_forecast.xlsx
@@ -546,61 +546,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.296046910472</v>
+        <v>1402.3</v>
       </c>
       <c r="D2" t="n">
-        <v>903.3105174988242</v>
+        <v>903.3</v>
       </c>
       <c r="E2" t="n">
-        <v>403.057498103921</v>
+        <v>403.1</v>
       </c>
       <c r="F2" t="n">
-        <v>273.3755736372722</v>
+        <v>273.4</v>
       </c>
       <c r="G2" t="n">
-        <v>204.7437770486284</v>
+        <v>204.7</v>
       </c>
       <c r="H2" t="n">
-        <v>383.1364194459669</v>
+        <v>383.1</v>
       </c>
       <c r="I2" t="n">
-        <v>237.7205823810009</v>
+        <v>237.7</v>
       </c>
       <c r="J2" t="n">
-        <v>863.8536087503611</v>
+        <v>863.9</v>
       </c>
       <c r="K2" t="n">
-        <v>189.9065122870909</v>
+        <v>189.9</v>
       </c>
       <c r="L2" t="n">
-        <v>60.6291215196551</v>
+        <v>60.6</v>
       </c>
       <c r="M2" t="n">
-        <v>636.3766710591717</v>
+        <v>636.4</v>
       </c>
       <c r="N2" t="n">
-        <v>101.2517083559174</v>
+        <v>101.3</v>
       </c>
       <c r="O2" t="n">
-        <v>103.3991305324099</v>
+        <v>103.4</v>
       </c>
       <c r="P2" t="n">
-        <v>365.3717011096231</v>
+        <v>365.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>59.43303904024551</v>
+        <v>59.4</v>
       </c>
       <c r="R2" t="n">
-        <v>12.08691410923005</v>
+        <v>12.1</v>
       </c>
       <c r="S2" t="n">
-        <v>61.50082926892657</v>
+        <v>61.5</v>
       </c>
       <c r="T2" t="n">
-        <v>75.7854795463186</v>
+        <v>75.8</v>
       </c>
       <c r="U2" t="n">
-        <v>22.0347329994961</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1402.296046910472</v>
+        <v>1402.3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>343.017966979656</v>
+        <v>343</v>
       </c>
       <c r="E3" t="n">
-        <v>267.2328768966666</v>
+        <v>267.2</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0178501515167</v>
+        <v>138</v>
       </c>
       <c r="G3" t="n">
-        <v>121.8448150625197</v>
+        <v>121.8</v>
       </c>
       <c r="H3" t="n">
-        <v>237.5562591669674</v>
+        <v>237.6</v>
       </c>
       <c r="I3" t="n">
-        <v>138.2343805491916</v>
+        <v>138.2</v>
       </c>
       <c r="J3" t="n">
-        <v>179.6823517812578</v>
+        <v>179.7</v>
       </c>
       <c r="K3" t="n">
-        <v>74.04798012360084</v>
+        <v>74</v>
       </c>
       <c r="L3" t="n">
-        <v>27.19535792780515</v>
+        <v>27.2</v>
       </c>
       <c r="M3" t="n">
-        <v>302.1105734599233</v>
+        <v>302.1</v>
       </c>
       <c r="N3" t="n">
-        <v>40.75402927082895</v>
+        <v>40.8</v>
       </c>
       <c r="O3" t="n">
-        <v>48.0476257419989</v>
+        <v>48</v>
       </c>
       <c r="P3" t="n">
-        <v>82.94721747623977</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.95002830243123</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>5.879983342508349</v>
+        <v>5.9</v>
       </c>
       <c r="S3" t="n">
-        <v>20.75136935141319</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>40.82177837957572</v>
+        <v>40.8</v>
       </c>
       <c r="U3" t="n">
-        <v>9.387468526017173</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4">
@@ -677,64 +677,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.3105174988242</v>
+        <v>903.3</v>
       </c>
       <c r="C4" t="n">
-        <v>343.017966979656</v>
+        <v>343</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>239.8864194275642</v>
+        <v>239.9</v>
       </c>
       <c r="F4" t="n">
-        <v>65.09930611627124</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>53.88690359549054</v>
+        <v>53.9</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2488389059484</v>
+        <v>171.2</v>
       </c>
       <c r="I4" t="n">
-        <v>78.75686205015504</v>
+        <v>78.8</v>
       </c>
       <c r="J4" t="n">
-        <v>132.6958463679895</v>
+        <v>132.7</v>
       </c>
       <c r="K4" t="n">
-        <v>74.01727701527749</v>
+        <v>74</v>
       </c>
       <c r="L4" t="n">
-        <v>14.31306380363766</v>
+        <v>14.3</v>
       </c>
       <c r="M4" t="n">
-        <v>340.2848674309606</v>
+        <v>340.3</v>
       </c>
       <c r="N4" t="n">
-        <v>37.36824798210933</v>
+        <v>37.4</v>
       </c>
       <c r="O4" t="n">
-        <v>42.88196654079425</v>
+        <v>42.9</v>
       </c>
       <c r="P4" t="n">
-        <v>80.437608276916</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.15537093847967</v>
+        <v>21.2</v>
       </c>
       <c r="R4" t="n">
-        <v>3.919025935974411</v>
+        <v>3.9</v>
       </c>
       <c r="S4" t="n">
-        <v>16.30063616817049</v>
+        <v>16.3</v>
       </c>
       <c r="T4" t="n">
-        <v>23.93781551104312</v>
+        <v>23.9</v>
       </c>
       <c r="U4" t="n">
-        <v>5.51426349790809</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -744,64 +744,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>403.057498103921</v>
+        <v>403.1</v>
       </c>
       <c r="C5" t="n">
-        <v>267.2328768966666</v>
+        <v>267.2</v>
       </c>
       <c r="D5" t="n">
-        <v>239.8864194275642</v>
+        <v>239.9</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>60.8290432138218</v>
+        <v>60.8</v>
       </c>
       <c r="G5" t="n">
-        <v>56.9790797202941</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>416.115042049362</v>
+        <v>416.1</v>
       </c>
       <c r="I5" t="n">
-        <v>103.5946313166933</v>
+        <v>103.6</v>
       </c>
       <c r="J5" t="n">
-        <v>75.74982483030782</v>
+        <v>75.7</v>
       </c>
       <c r="K5" t="n">
-        <v>62.13554464744407</v>
+        <v>62.1</v>
       </c>
       <c r="L5" t="n">
-        <v>12.70211227844622</v>
+        <v>12.7</v>
       </c>
       <c r="M5" t="n">
-        <v>441.8249710802054</v>
+        <v>441.8</v>
       </c>
       <c r="N5" t="n">
-        <v>33.32458743573506</v>
+        <v>33.3</v>
       </c>
       <c r="O5" t="n">
-        <v>50.03046403485262</v>
+        <v>50</v>
       </c>
       <c r="P5" t="n">
-        <v>42.23480074786233</v>
+        <v>42.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>24.73060813835557</v>
+        <v>24.7</v>
       </c>
       <c r="R5" t="n">
-        <v>4.318677512378528</v>
+        <v>4.3</v>
       </c>
       <c r="S5" t="n">
-        <v>12.02123754106794</v>
+        <v>12</v>
       </c>
       <c r="T5" t="n">
-        <v>28.31523885231474</v>
+        <v>28.3</v>
       </c>
       <c r="U5" t="n">
-        <v>4.870104698916077</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -811,64 +811,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273.3755736372722</v>
+        <v>273.4</v>
       </c>
       <c r="C6" t="n">
-        <v>138.0178501515167</v>
+        <v>138</v>
       </c>
       <c r="D6" t="n">
-        <v>65.09930611627124</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>60.8290432138218</v>
+        <v>60.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>236.2722691967048</v>
+        <v>236.3</v>
       </c>
       <c r="H6" t="n">
-        <v>85.11627064683189</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>103.9137127150338</v>
+        <v>103.9</v>
       </c>
       <c r="J6" t="n">
-        <v>79.50180797848709</v>
+        <v>79.5</v>
       </c>
       <c r="K6" t="n">
-        <v>36.71072326888103</v>
+        <v>36.7</v>
       </c>
       <c r="L6" t="n">
-        <v>95.29133580787374</v>
+        <v>95.3</v>
       </c>
       <c r="M6" t="n">
-        <v>109.2860181523833</v>
+        <v>109.3</v>
       </c>
       <c r="N6" t="n">
-        <v>22.40424747903017</v>
+        <v>22.4</v>
       </c>
       <c r="O6" t="n">
-        <v>23.7924029622767</v>
+        <v>23.8</v>
       </c>
       <c r="P6" t="n">
-        <v>33.76810223162257</v>
+        <v>33.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.34212584921989</v>
+        <v>19.3</v>
       </c>
       <c r="R6" t="n">
-        <v>5.097190310088404</v>
+        <v>5.1</v>
       </c>
       <c r="S6" t="n">
-        <v>14.37152912833903</v>
+        <v>14.4</v>
       </c>
       <c r="T6" t="n">
-        <v>39.23849395515815</v>
+        <v>39.2</v>
       </c>
       <c r="U6" t="n">
-        <v>16.70125177726584</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="7">
@@ -878,64 +878,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.7437770486284</v>
+        <v>204.7</v>
       </c>
       <c r="C7" t="n">
-        <v>121.8448150625197</v>
+        <v>121.8</v>
       </c>
       <c r="D7" t="n">
-        <v>53.88690359549054</v>
+        <v>53.9</v>
       </c>
       <c r="E7" t="n">
-        <v>56.9790797202941</v>
+        <v>57</v>
       </c>
       <c r="F7" t="n">
-        <v>236.2722691967048</v>
+        <v>236.3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>84.87001127468183</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>122.9525876874952</v>
+        <v>123</v>
       </c>
       <c r="J7" t="n">
-        <v>52.39247328246823</v>
+        <v>52.4</v>
       </c>
       <c r="K7" t="n">
-        <v>28.69649955672499</v>
+        <v>28.7</v>
       </c>
       <c r="L7" t="n">
-        <v>28.3867685964674</v>
+        <v>28.4</v>
       </c>
       <c r="M7" t="n">
-        <v>95.28811976047675</v>
+        <v>95.3</v>
       </c>
       <c r="N7" t="n">
-        <v>17.47065644826971</v>
+        <v>17.5</v>
       </c>
       <c r="O7" t="n">
-        <v>20.48243935783866</v>
+        <v>20.5</v>
       </c>
       <c r="P7" t="n">
-        <v>23.59784897690762</v>
+        <v>23.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.10087779650253</v>
+        <v>17.1</v>
       </c>
       <c r="R7" t="n">
-        <v>4.399617807169325</v>
+        <v>4.4</v>
       </c>
       <c r="S7" t="n">
-        <v>9.364096096206641</v>
+        <v>9.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.70153407696974</v>
+        <v>41.7</v>
       </c>
       <c r="U7" t="n">
-        <v>8.033750280816868</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -945,64 +945,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.1364194459669</v>
+        <v>383.1</v>
       </c>
       <c r="C8" t="n">
-        <v>237.5562591669674</v>
+        <v>237.6</v>
       </c>
       <c r="D8" t="n">
-        <v>171.2488389059484</v>
+        <v>171.2</v>
       </c>
       <c r="E8" t="n">
-        <v>416.115042049362</v>
+        <v>416.1</v>
       </c>
       <c r="F8" t="n">
-        <v>85.11627064683189</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>84.87001127468183</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5549671212677</v>
+        <v>216.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.92619599586382</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>84.50572400148134</v>
+        <v>84.5</v>
       </c>
       <c r="L8" t="n">
-        <v>17.6511631857641</v>
+        <v>17.7</v>
       </c>
       <c r="M8" t="n">
-        <v>578.3034820243021</v>
+        <v>578.3</v>
       </c>
       <c r="N8" t="n">
-        <v>48.26619980466276</v>
+        <v>48.3</v>
       </c>
       <c r="O8" t="n">
-        <v>89.00100896756054</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
-        <v>46.02220137033409</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="n">
-        <v>48.02333154364029</v>
+        <v>48</v>
       </c>
       <c r="R8" t="n">
-        <v>7.766770542826015</v>
+        <v>7.8</v>
       </c>
       <c r="S8" t="n">
-        <v>15.55985343711463</v>
+        <v>15.6</v>
       </c>
       <c r="T8" t="n">
-        <v>53.08951235400031</v>
+        <v>53.1</v>
       </c>
       <c r="U8" t="n">
-        <v>6.922413569515411</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="9">
@@ -1012,64 +1012,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>237.7205823810009</v>
+        <v>237.7</v>
       </c>
       <c r="C9" t="n">
-        <v>138.2343805491916</v>
+        <v>138.2</v>
       </c>
       <c r="D9" t="n">
-        <v>78.75686205015504</v>
+        <v>78.8</v>
       </c>
       <c r="E9" t="n">
-        <v>103.5946313166933</v>
+        <v>103.6</v>
       </c>
       <c r="F9" t="n">
-        <v>103.9137127150338</v>
+        <v>103.9</v>
       </c>
       <c r="G9" t="n">
-        <v>122.9525876874952</v>
+        <v>123</v>
       </c>
       <c r="H9" t="n">
-        <v>216.5549671212677</v>
+        <v>216.6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.14845163788863</v>
+        <v>60.1</v>
       </c>
       <c r="K9" t="n">
-        <v>52.33519285879709</v>
+        <v>52.3</v>
       </c>
       <c r="L9" t="n">
-        <v>20.43826778477206</v>
+        <v>20.4</v>
       </c>
       <c r="M9" t="n">
-        <v>195.7754015982512</v>
+        <v>195.8</v>
       </c>
       <c r="N9" t="n">
-        <v>32.97985952529034</v>
+        <v>33</v>
       </c>
       <c r="O9" t="n">
-        <v>48.34417276958438</v>
+        <v>48.3</v>
       </c>
       <c r="P9" t="n">
-        <v>30.50141622698879</v>
+        <v>30.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.07796983268713</v>
+        <v>51.1</v>
       </c>
       <c r="R9" t="n">
-        <v>12.02868999749375</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>12.65046294243574</v>
+        <v>12.7</v>
       </c>
       <c r="T9" t="n">
-        <v>193.8922745616488</v>
+        <v>193.9</v>
       </c>
       <c r="U9" t="n">
-        <v>7.974586996425742</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1079,64 +1079,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>863.8536087503611</v>
+        <v>863.9</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6823517812578</v>
+        <v>179.7</v>
       </c>
       <c r="D10" t="n">
-        <v>132.6958463679895</v>
+        <v>132.7</v>
       </c>
       <c r="E10" t="n">
-        <v>75.74982483030782</v>
+        <v>75.7</v>
       </c>
       <c r="F10" t="n">
-        <v>79.50180797848709</v>
+        <v>79.5</v>
       </c>
       <c r="G10" t="n">
-        <v>52.39247328246823</v>
+        <v>52.4</v>
       </c>
       <c r="H10" t="n">
-        <v>83.92619599586382</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>60.14845163788863</v>
+        <v>60.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.71424890681117</v>
+        <v>58.7</v>
       </c>
       <c r="L10" t="n">
-        <v>20.09676206395136</v>
+        <v>20.1</v>
       </c>
       <c r="M10" t="n">
-        <v>150.1933271148164</v>
+        <v>150.2</v>
       </c>
       <c r="N10" t="n">
-        <v>31.87364371860088</v>
+        <v>31.9</v>
       </c>
       <c r="O10" t="n">
-        <v>27.83599359577654</v>
+        <v>27.8</v>
       </c>
       <c r="P10" t="n">
-        <v>227.2683376027603</v>
+        <v>227.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.65561758624937</v>
+        <v>16.7</v>
       </c>
       <c r="R10" t="n">
-        <v>3.521299215806243</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="n">
-        <v>29.00018490189116</v>
+        <v>29</v>
       </c>
       <c r="T10" t="n">
-        <v>20.53568416479954</v>
+        <v>20.5</v>
       </c>
       <c r="U10" t="n">
-        <v>7.840582335175226</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11">
@@ -1146,64 +1146,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.9065122870909</v>
+        <v>189.9</v>
       </c>
       <c r="C11" t="n">
-        <v>74.04798012360084</v>
+        <v>74</v>
       </c>
       <c r="D11" t="n">
-        <v>74.01727701527749</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
-        <v>62.13554464744407</v>
+        <v>62.1</v>
       </c>
       <c r="F11" t="n">
-        <v>36.71072326888103</v>
+        <v>36.7</v>
       </c>
       <c r="G11" t="n">
-        <v>28.69649955672499</v>
+        <v>28.7</v>
       </c>
       <c r="H11" t="n">
-        <v>84.50572400148134</v>
+        <v>84.5</v>
       </c>
       <c r="I11" t="n">
-        <v>52.33519285879709</v>
+        <v>52.3</v>
       </c>
       <c r="J11" t="n">
-        <v>58.71424890681117</v>
+        <v>58.7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.049451778975296</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>247.4363739342755</v>
+        <v>247.4</v>
       </c>
       <c r="N11" t="n">
-        <v>226.6714536547689</v>
+        <v>226.7</v>
       </c>
       <c r="O11" t="n">
-        <v>67.80194121170246</v>
+        <v>67.8</v>
       </c>
       <c r="P11" t="n">
-        <v>39.74622918504681</v>
+        <v>39.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.72377248379031</v>
+        <v>24.7</v>
       </c>
       <c r="R11" t="n">
-        <v>3.970430255563689</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>17.66377946917297</v>
+        <v>17.7</v>
       </c>
       <c r="T11" t="n">
-        <v>17.9995137164858</v>
+        <v>18</v>
       </c>
       <c r="U11" t="n">
-        <v>4.147828898624836</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12">
@@ -1213,64 +1213,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.6291215196551</v>
+        <v>60.6</v>
       </c>
       <c r="C12" t="n">
-        <v>27.19535792780515</v>
+        <v>27.2</v>
       </c>
       <c r="D12" t="n">
-        <v>14.31306380363766</v>
+        <v>14.3</v>
       </c>
       <c r="E12" t="n">
-        <v>12.70211227844622</v>
+        <v>12.7</v>
       </c>
       <c r="F12" t="n">
-        <v>95.29133580787374</v>
+        <v>95.3</v>
       </c>
       <c r="G12" t="n">
-        <v>28.3867685964674</v>
+        <v>28.4</v>
       </c>
       <c r="H12" t="n">
-        <v>17.6511631857641</v>
+        <v>17.7</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43826778477206</v>
+        <v>20.4</v>
       </c>
       <c r="J12" t="n">
-        <v>20.09676206395136</v>
+        <v>20.1</v>
       </c>
       <c r="K12" t="n">
-        <v>9.049451778975296</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>24.55116442492422</v>
+        <v>24.6</v>
       </c>
       <c r="N12" t="n">
-        <v>5.590692785400566</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>5.51989383588759</v>
+        <v>5.5</v>
       </c>
       <c r="P12" t="n">
-        <v>8.470164430427038</v>
+        <v>8.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.495467175824318</v>
+        <v>4.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.213274191477211</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>4.139596667308005</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>8.141798597087329</v>
+        <v>8.1</v>
       </c>
       <c r="U12" t="n">
-        <v>8.198775899049966</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1280,64 +1280,64 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.3766710591717</v>
+        <v>636.4</v>
       </c>
       <c r="C13" t="n">
-        <v>302.1105734599233</v>
+        <v>302.1</v>
       </c>
       <c r="D13" t="n">
-        <v>340.2848674309606</v>
+        <v>340.3</v>
       </c>
       <c r="E13" t="n">
-        <v>441.8249710802054</v>
+        <v>441.8</v>
       </c>
       <c r="F13" t="n">
-        <v>109.2860181523833</v>
+        <v>109.3</v>
       </c>
       <c r="G13" t="n">
-        <v>95.28811976047675</v>
+        <v>95.3</v>
       </c>
       <c r="H13" t="n">
-        <v>578.3034820243021</v>
+        <v>578.3</v>
       </c>
       <c r="I13" t="n">
-        <v>195.7754015982512</v>
+        <v>195.8</v>
       </c>
       <c r="J13" t="n">
-        <v>150.1933271148164</v>
+        <v>150.2</v>
       </c>
       <c r="K13" t="n">
-        <v>247.4363739342755</v>
+        <v>247.4</v>
       </c>
       <c r="L13" t="n">
-        <v>24.55116442492422</v>
+        <v>24.6</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>123.3526360341451</v>
+        <v>123.4</v>
       </c>
       <c r="O13" t="n">
-        <v>243.3674835680949</v>
+        <v>243.4</v>
       </c>
       <c r="P13" t="n">
-        <v>92.99127142304303</v>
+        <v>93</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.20516618835899</v>
+        <v>71.2</v>
       </c>
       <c r="R13" t="n">
-        <v>10.66658372220176</v>
+        <v>10.7</v>
       </c>
       <c r="S13" t="n">
-        <v>29.92746084078668</v>
+        <v>29.9</v>
       </c>
       <c r="T13" t="n">
-        <v>58.41712594226625</v>
+        <v>58.4</v>
       </c>
       <c r="U13" t="n">
-        <v>10.21410241729656</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="14">
@@ -1347,64 +1347,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.2517083559174</v>
+        <v>101.3</v>
       </c>
       <c r="C14" t="n">
-        <v>40.75402927082895</v>
+        <v>40.8</v>
       </c>
       <c r="D14" t="n">
-        <v>37.36824798210933</v>
+        <v>37.4</v>
       </c>
       <c r="E14" t="n">
-        <v>33.32458743573506</v>
+        <v>33.3</v>
       </c>
       <c r="F14" t="n">
-        <v>22.40424747903017</v>
+        <v>22.4</v>
       </c>
       <c r="G14" t="n">
-        <v>17.47065644826971</v>
+        <v>17.5</v>
       </c>
       <c r="H14" t="n">
-        <v>48.26619980466276</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>32.97985952529034</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>31.87364371860088</v>
+        <v>31.9</v>
       </c>
       <c r="K14" t="n">
-        <v>226.6714536547689</v>
+        <v>226.7</v>
       </c>
       <c r="L14" t="n">
-        <v>5.590692785400566</v>
+        <v>5.6</v>
       </c>
       <c r="M14" t="n">
-        <v>123.3526360341451</v>
+        <v>123.4</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>42.9226543170333</v>
+        <v>42.9</v>
       </c>
       <c r="P14" t="n">
-        <v>20.43668188915211</v>
+        <v>20.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.75976797378507</v>
+        <v>17.8</v>
       </c>
       <c r="R14" t="n">
-        <v>2.799447271272937</v>
+        <v>2.8</v>
       </c>
       <c r="S14" t="n">
-        <v>10.68832495560484</v>
+        <v>10.7</v>
       </c>
       <c r="T14" t="n">
-        <v>11.7109766434611</v>
+        <v>11.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.639052170707549</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -1414,64 +1414,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.3991305324099</v>
+        <v>103.4</v>
       </c>
       <c r="C15" t="n">
-        <v>48.0476257419989</v>
+        <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>42.88196654079425</v>
+        <v>42.9</v>
       </c>
       <c r="E15" t="n">
-        <v>50.03046403485262</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>23.7924029622767</v>
+        <v>23.8</v>
       </c>
       <c r="G15" t="n">
-        <v>20.48243935783866</v>
+        <v>20.5</v>
       </c>
       <c r="H15" t="n">
-        <v>89.00100896756054</v>
+        <v>89</v>
       </c>
       <c r="I15" t="n">
-        <v>48.34417276958438</v>
+        <v>48.3</v>
       </c>
       <c r="J15" t="n">
-        <v>27.83599359577654</v>
+        <v>27.8</v>
       </c>
       <c r="K15" t="n">
-        <v>67.80194121170246</v>
+        <v>67.8</v>
       </c>
       <c r="L15" t="n">
-        <v>5.51989383588759</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>243.3674835680949</v>
+        <v>243.4</v>
       </c>
       <c r="N15" t="n">
-        <v>42.9226543170333</v>
+        <v>42.9</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>16.71594150711752</v>
+        <v>16.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.15694649350144</v>
+        <v>30.2</v>
       </c>
       <c r="R15" t="n">
-        <v>3.444298277028324</v>
+        <v>3.4</v>
       </c>
       <c r="S15" t="n">
-        <v>6.930405009728696</v>
+        <v>6.9</v>
       </c>
       <c r="T15" t="n">
-        <v>15.57118402365724</v>
+        <v>15.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.436092873647838</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
@@ -1481,64 +1481,64 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.3717011096231</v>
+        <v>365.4</v>
       </c>
       <c r="C16" t="n">
-        <v>82.94721747623977</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>80.437608276916</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>42.23480074786233</v>
+        <v>42.2</v>
       </c>
       <c r="F16" t="n">
-        <v>33.76810223162257</v>
+        <v>33.8</v>
       </c>
       <c r="G16" t="n">
-        <v>23.59784897690762</v>
+        <v>23.6</v>
       </c>
       <c r="H16" t="n">
-        <v>46.02220137033409</v>
+        <v>46</v>
       </c>
       <c r="I16" t="n">
-        <v>30.50141622698879</v>
+        <v>30.5</v>
       </c>
       <c r="J16" t="n">
-        <v>227.2683376027603</v>
+        <v>227.3</v>
       </c>
       <c r="K16" t="n">
-        <v>39.74622918504681</v>
+        <v>39.7</v>
       </c>
       <c r="L16" t="n">
-        <v>8.470164430427038</v>
+        <v>8.5</v>
       </c>
       <c r="M16" t="n">
-        <v>92.99127142304303</v>
+        <v>93</v>
       </c>
       <c r="N16" t="n">
-        <v>20.43668188915211</v>
+        <v>20.4</v>
       </c>
       <c r="O16" t="n">
-        <v>16.71594150711752</v>
+        <v>16.7</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.215752226171331</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>1.855191945590265</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>16.72817266112084</v>
+        <v>16.7</v>
       </c>
       <c r="T16" t="n">
-        <v>10.33788348810396</v>
+        <v>10.3</v>
       </c>
       <c r="U16" t="n">
-        <v>3.502666918787317</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17">
@@ -1548,64 +1548,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.43303904024551</v>
+        <v>59.4</v>
       </c>
       <c r="C17" t="n">
-        <v>28.95002830243123</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>21.15537093847967</v>
+        <v>21.2</v>
       </c>
       <c r="E17" t="n">
-        <v>24.73060813835557</v>
+        <v>24.7</v>
       </c>
       <c r="F17" t="n">
-        <v>19.34212584921989</v>
+        <v>19.3</v>
       </c>
       <c r="G17" t="n">
-        <v>17.10087779650253</v>
+        <v>17.1</v>
       </c>
       <c r="H17" t="n">
-        <v>48.02333154364029</v>
+        <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>51.07796983268713</v>
+        <v>51.1</v>
       </c>
       <c r="J17" t="n">
-        <v>16.65561758624937</v>
+        <v>16.7</v>
       </c>
       <c r="K17" t="n">
-        <v>24.72377248379031</v>
+        <v>24.7</v>
       </c>
       <c r="L17" t="n">
-        <v>4.495467175824318</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>71.20516618835899</v>
+        <v>71.2</v>
       </c>
       <c r="N17" t="n">
-        <v>17.75976797378507</v>
+        <v>17.8</v>
       </c>
       <c r="O17" t="n">
-        <v>30.15694649350144</v>
+        <v>30.2</v>
       </c>
       <c r="P17" t="n">
-        <v>9.215752226171331</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.603769992879972</v>
+        <v>6.6</v>
       </c>
       <c r="S17" t="n">
-        <v>4.422855231714136</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>19.37950837820148</v>
+        <v>19.4</v>
       </c>
       <c r="U17" t="n">
-        <v>2.057014936833929</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
@@ -1615,64 +1615,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12.08691410923005</v>
+        <v>12.1</v>
       </c>
       <c r="C18" t="n">
-        <v>5.879983342508349</v>
+        <v>5.9</v>
       </c>
       <c r="D18" t="n">
-        <v>3.919025935974411</v>
+        <v>3.9</v>
       </c>
       <c r="E18" t="n">
-        <v>4.318677512378528</v>
+        <v>4.3</v>
       </c>
       <c r="F18" t="n">
-        <v>5.097190310088404</v>
+        <v>5.1</v>
       </c>
       <c r="G18" t="n">
-        <v>4.399617807169325</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>7.766770542826015</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>12.02868999749375</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>3.521299215806243</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.970430255563689</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.213274191477211</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>10.66658372220176</v>
+        <v>10.7</v>
       </c>
       <c r="N18" t="n">
-        <v>2.799447271272937</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>3.444298277028324</v>
+        <v>3.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.855191945590265</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.603769992879972</v>
+        <v>6.6</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9631565486194884</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>6.538466042774616</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5829102198197053</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
@@ -1682,64 +1682,64 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.50082926892657</v>
+        <v>61.5</v>
       </c>
       <c r="C19" t="n">
-        <v>20.75136935141319</v>
+        <v>20.8</v>
       </c>
       <c r="D19" t="n">
-        <v>16.30063616817049</v>
+        <v>16.3</v>
       </c>
       <c r="E19" t="n">
-        <v>12.02123754106794</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>14.37152912833903</v>
+        <v>14.4</v>
       </c>
       <c r="G19" t="n">
-        <v>9.364096096206641</v>
+        <v>9.4</v>
       </c>
       <c r="H19" t="n">
-        <v>15.55985343711463</v>
+        <v>15.6</v>
       </c>
       <c r="I19" t="n">
-        <v>12.65046294243574</v>
+        <v>12.7</v>
       </c>
       <c r="J19" t="n">
-        <v>29.00018490189116</v>
+        <v>29</v>
       </c>
       <c r="K19" t="n">
-        <v>17.66377946917297</v>
+        <v>17.7</v>
       </c>
       <c r="L19" t="n">
-        <v>4.139596667308005</v>
+        <v>4.1</v>
       </c>
       <c r="M19" t="n">
-        <v>29.92746084078668</v>
+        <v>29.9</v>
       </c>
       <c r="N19" t="n">
-        <v>10.68832495560484</v>
+        <v>10.7</v>
       </c>
       <c r="O19" t="n">
-        <v>6.930405009728696</v>
+        <v>6.9</v>
       </c>
       <c r="P19" t="n">
-        <v>16.72817266112084</v>
+        <v>16.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.422855231714136</v>
+        <v>4.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9631565486194884</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.706672740394044</v>
+        <v>4.7</v>
       </c>
       <c r="U19" t="n">
-        <v>2.135510015715325</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="20">
@@ -1749,64 +1749,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.7854795463186</v>
+        <v>75.8</v>
       </c>
       <c r="C20" t="n">
-        <v>40.82177837957572</v>
+        <v>40.8</v>
       </c>
       <c r="D20" t="n">
-        <v>23.93781551104312</v>
+        <v>23.9</v>
       </c>
       <c r="E20" t="n">
-        <v>28.31523885231474</v>
+        <v>28.3</v>
       </c>
       <c r="F20" t="n">
-        <v>39.23849395515815</v>
+        <v>39.2</v>
       </c>
       <c r="G20" t="n">
-        <v>41.70153407696974</v>
+        <v>41.7</v>
       </c>
       <c r="H20" t="n">
-        <v>53.08951235400031</v>
+        <v>53.1</v>
       </c>
       <c r="I20" t="n">
-        <v>193.8922745616488</v>
+        <v>193.9</v>
       </c>
       <c r="J20" t="n">
-        <v>20.53568416479954</v>
+        <v>20.5</v>
       </c>
       <c r="K20" t="n">
-        <v>17.9995137164858</v>
+        <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>8.141798597087329</v>
+        <v>8.1</v>
       </c>
       <c r="M20" t="n">
-        <v>58.41712594226625</v>
+        <v>58.4</v>
       </c>
       <c r="N20" t="n">
-        <v>11.7109766434611</v>
+        <v>11.7</v>
       </c>
       <c r="O20" t="n">
-        <v>15.57118402365724</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>10.33788348810396</v>
+        <v>10.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.37950837820148</v>
+        <v>19.4</v>
       </c>
       <c r="R20" t="n">
-        <v>6.538466042774616</v>
+        <v>6.5</v>
       </c>
       <c r="S20" t="n">
-        <v>4.706672740394044</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.365654420520531</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
@@ -1816,61 +1816,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.0347329994961</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>9.387468526017173</v>
+        <v>9.4</v>
       </c>
       <c r="D21" t="n">
-        <v>5.51426349790809</v>
+        <v>5.5</v>
       </c>
       <c r="E21" t="n">
-        <v>4.870104698916077</v>
+        <v>4.9</v>
       </c>
       <c r="F21" t="n">
-        <v>16.70125177726584</v>
+        <v>16.7</v>
       </c>
       <c r="G21" t="n">
-        <v>8.033750280816868</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>6.922413569515411</v>
+        <v>6.9</v>
       </c>
       <c r="I21" t="n">
-        <v>7.974586996425742</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>7.840582335175226</v>
+        <v>7.8</v>
       </c>
       <c r="K21" t="n">
-        <v>4.147828898624836</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>8.198775899049966</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>10.21410241729656</v>
+        <v>10.2</v>
       </c>
       <c r="N21" t="n">
-        <v>2.639052170707549</v>
+        <v>2.6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.436092873647838</v>
+        <v>2.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3.502666918787317</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.057014936833929</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5829102198197053</v>
+        <v>0.6</v>
       </c>
       <c r="S21" t="n">
-        <v>2.135510015715325</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>3.365654420520531</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
